--- a/02_data/cleandata/idstocheck.xlsx
+++ b/02_data/cleandata/idstocheck.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t xml:space="preserve">studycode</t>
   </si>
@@ -26,6 +26,621 @@
     <t xml:space="preserve">PublicationID</t>
   </si>
   <si>
+    <t xml:space="preserve">schubart&amp;sommer_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total PLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schubart&amp;vangastel_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vangastel_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinkers_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vreeker_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vangastel_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konings_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konings_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdoux_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive PLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stefanis_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hides_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinner_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vangastel_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruiz-veguilla_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alemany_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spriggens&amp;hides_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brañas_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galletly_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brañas_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumas_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiang_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cohen_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morgan_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esterberg_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mason_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandam_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earleywine_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schiffman_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">williams_1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barkus_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorganized Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridberg_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifetime use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baskak_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kim_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridberg_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compton_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hollis_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skosnik_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schaub_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bailey_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skosnik_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nunn_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fleming_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schubart_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skosnik_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumas_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nunn_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanos_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fergusson_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henquet_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tien_1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degenhardt_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degenhardtandhall_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miller_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arseneault_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fergusson_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marconi_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiles_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miettunen_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcgrath_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any psychosis outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiser_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most frequent use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gapdata_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most frequent  use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rössler_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferdinand_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bechtold_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caspi_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuepper_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustonen_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffith-lendering_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreasson_1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis of a psychotic disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreasson_1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolfe_1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grech_1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hallanddegenhardt_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farrell_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agosti_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phillips_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arendt_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of onset of psychosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bersani_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cahn_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caspari_1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleghom_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compton_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derosse_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dubertret_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gonzález-pinto_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koen_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovasznay_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linszen_1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mata_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauri_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modestin_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peralta_1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rehman_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roos_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sevy_1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sevy_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugranyes_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanmastrigt_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veen_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baeza_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldberger_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grace_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavanagh_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krebs_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maremmani_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mazzoncini_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ongur_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wade_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrigón_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burns_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleghorn_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gonzález-pinto_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovasznay_1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leeson_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machielsen_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rehman_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimmelmann_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimmelmann_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehert_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dekker_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrada_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grech_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leeson_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galvez-buccollini_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allegri_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stefanis_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tosato_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o’donoghue_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o’o’donoghue_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helle_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kantrowitz_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martin_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragt_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transition to psychosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristensenandcadenhead_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auther_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis abuse/dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valmaggia_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buchy_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auther_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corcoran_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifetime cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragt_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristensen_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragt_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buchy_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mchugh_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addington_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atkinson_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berger_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloemen_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bousman_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deighton_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devylder_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foecking_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labad_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lavoie_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nieman_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riecher-rössler_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seidman_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velthorst_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ziermans_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korver_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peters_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bugra_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizrahi_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nieman_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vantricht_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gill_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winton-brown_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addington_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hagenmuller_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pruessner_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">russo_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stojanovic_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis use disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devylder_2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">aadamsoo_2011</t>
   </si>
   <si>
@@ -35,37 +650,448 @@
     <t xml:space="preserve">transition to schizophrenia</t>
   </si>
   <si>
-    <t xml:space="preserve">addington_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transition to psychosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addington_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR state</t>
-  </si>
-  <si>
     <t xml:space="preserve">addington_2006</t>
   </si>
   <si>
+    <t xml:space="preserve">alderson_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amin_1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amini_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arendt_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bachmann_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baldwin_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">björkenstam_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bromet_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castagnini_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castro-fornieles_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chang_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chen_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crebbin_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enderami_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraguas_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haahr_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heslin_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jarbin_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingston_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kittirattanapaiboon_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komuravelli_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marneros_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauri_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medhus_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narayanaswamy_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niemi-pynttari_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pillman_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poon_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pope_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahm_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rusaka_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salvatore_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sara_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimmelmann_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schwartz_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shinn_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singal_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singh_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starzer_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subramaniam_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suda_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whitty_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wright_1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhang-wong_1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degenhardt_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stirling_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariashorcajadas_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peraltaandcuesta_1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued use vs non-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isaac_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jockers-scherubl_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ringen_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentzsch_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faridi_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrowclough_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schaub_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current cannabis users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goodman_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lev-ran_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bourque_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solowij_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potvin_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabin_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sevy_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cassidy_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandijk_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentzsch_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent cannabis abstainers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentzsch_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schnell_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hides_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wade_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martínezarévalo_1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negrete_1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued vs non-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salyersandmueser_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorbara_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rehmanandfarooq_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">san_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koenders_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandermeer_2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">addington_2007</t>
   </si>
   <si>
     <t xml:space="preserve">any psychosis outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">agosti_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis of a psychotic disorder</t>
+    <t xml:space="preserve">barrowclough_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bergé_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clausen_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colizzi_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emsley_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fond_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foti_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grech_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadden_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ouellett-plamondon_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seddon_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setién-suero_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhattacharrya_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marino_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentero_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rømerthomsen_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schoeler_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adolescent cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonseca-pedrero_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harley_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">houston_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levy_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mackie_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manrique-garcia_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paruk_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scott_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiburi_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jones_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other substance use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ryan_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis type / potency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quattrone_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bechtold_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of first use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henquet_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gage_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setién-suero_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti(2009;14;15)&amp;sideli_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti(2019)&amp;quattrone_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chan_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prince_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matsumoto_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hines_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okey_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karcher_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern / frequency of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leadbeater_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sideli_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nunez_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arranaz_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castaneda_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marwaha_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High cannabis use</t>
   </si>
   <si>
     <t xml:space="preserve">albertella_2018</t>
@@ -77,178 +1103,76 @@
     <t xml:space="preserve">albertella_2017</t>
   </si>
   <si>
-    <t xml:space="preserve">alderson_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alemany_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive PLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allegri_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age of onset of psychosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amin_1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amini_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andreasson_1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andreasson_1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arendt_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arendt_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ariashorcajadas_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arranaz_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arseneault_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychotic symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atkinson_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auther_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis abuse/dependence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auther_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachmann_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baeza_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bailey_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifetime use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baldwin_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barkus_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorganized Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrigón_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrowclough_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continued use vs non-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrowclough_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baskak_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bechtold_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any psychosis outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bechtold_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age of first use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berger_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bergé_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bersani_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhattacharrya_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">björkenstam_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloeman_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bourque_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current cannabis users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bousman_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brañas_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brañas_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bromet_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buchy_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buchy_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bugra_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive Symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burns_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cahn_2004</t>
+    <t xml:space="preserve">nesvag_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shakoor_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stirling_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madraisau_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no specific genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanwinkel_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morgan_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costas_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-only studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desousa_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ermis_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pelayo-terán_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henquet_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continous outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gutierrez_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nawaz_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mané_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lodhi_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">husted_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS1AP</t>
   </si>
   <si>
     <t xml:space="preserve">carvalho_2021</t>
@@ -257,964 +1181,25 @@
     <t xml:space="preserve">DRD2</t>
   </si>
   <si>
-    <t xml:space="preserve">Continous outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caspari_1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caspi_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cassidy_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castagnini_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castaneda_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castro-fornieles_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chan_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chang_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chen_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clausen_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleghom_1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleghorn_1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cohen_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colizzi_2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">colizzi_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">compton_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compton_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corcoran_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifetime cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costas_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case-only studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crebbin_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dehert_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desousa_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derosse_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devylder_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devylder_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degenhardt_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degenhardt_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degenhardtandhall_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deighton_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dekker_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adolescent cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis type / potency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti(2009;14;15)&amp;sideli_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti(2019)&amp;quattrone_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragt_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragt_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragt_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dubertret_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumas_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumas_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earleywine_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emsley_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enderami_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ermis_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esterberg_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrada_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faridi_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farrell_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferdinand_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fergusson_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fergusson_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fleming_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foecking_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fond_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonseca-pedrero_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foti_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fraguas_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fridberg_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fridberg_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gapdata_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">most frequent  use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gage_2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">gage_2017</t>
   </si>
   <si>
     <t xml:space="preserve">mendelian randomization</t>
   </si>
   <si>
-    <t xml:space="preserve">galletly_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galvez-buccollini_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gill_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldberger_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzález-pinto_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzález-pinto_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goodman_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grace_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grech_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grech_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grech_1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffith-lendering_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gutierrez_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haahr_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hadden_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hagenmuller_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hallanddegenhardt_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harley_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helle_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henquet_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henquet_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henquet_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heslin_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hides_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hides_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hines_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ho_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hollis_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">houston_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">husted_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS1AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isaac_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jarbin_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jockers-scherubl_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jones_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other substance use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kantrowitz_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karcher_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern / frequency of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kavanagh_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiang_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiburi_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kim_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingston_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kittirattanapaiboon_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koen_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koenders_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continued vs non-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">komuravelli_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konings_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total PLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konings_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">korver_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kovasznay_1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kovasznay_1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krebs_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensen_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensenandcadenhead_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuepper_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labad_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">large_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lavoie_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leadbeater_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leeson_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leeson_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lev-ran_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levy_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linszen_1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lodhi_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machielsen_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mackie_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madraisau_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no specific genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manrique-garcia_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mané_2007</t>
+    <t xml:space="preserve">vaucher_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasman_2018</t>
   </si>
   <si>
     <t xml:space="preserve">mané_2017</t>
   </si>
   <si>
     <t xml:space="preserve">BDNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marconi_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maremmani_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marino_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marneros_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martin_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martínezarévalo_1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marwaha_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mason_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mata_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matsumoto_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauri_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauri_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazzoncini_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcgrath_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mchugh_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medhus_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miettunen_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miller_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mizrahi_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modestin_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morgan_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morgan_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mustonen_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">narayanaswamy_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nawaz_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negrete_1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nesvag_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nieman_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nieman_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niemi-pynttari_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunez_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunn_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunn_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okey_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ongur_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oullett-plamondon_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o’donoghue_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o’o’donoghue_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paruk_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pasman_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pelayo-terán_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peralta_1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peraltaandcuesta_1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peters_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phillips_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pillman_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poon_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pope_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potvin_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prince_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pruessner_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quattrone_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabin_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahm_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rehman_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rehman_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rehmanandfarooq_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentero_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentzsch_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentzsch_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent cannabis abstainers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentzsch_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">riecher-rössler_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ringen_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolfe_1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roos_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruiz-veguilla_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rusaka_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">russo_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ryan_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rössler_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rømerthomsen_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salvatore_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salyersandmueser_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">san_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sara_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schaub_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schaub_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schiffman_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmann_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmannn_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmannn_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmannn_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmannn_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schnell_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schoeler_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schubart_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schubart&amp;sommer_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schubart&amp;vangastel_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schwartz_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scott_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seddon_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seidman_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setién-suero_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setién-suero_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevy_1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevy_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevy_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shakoor_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shinn_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sideli_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singal_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singh_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinner_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skosnik_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skosnik_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skosnik_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solowij_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorbaca_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorbara_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spriggens&amp;hides_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starzer_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stefanis_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stefanis_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stirling_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stirling_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stojanovic_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis use disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subramaniam_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suda_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugranyes_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tien_1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tien&amp;anthony_1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tosato_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valmaggia_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandam_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandijk_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vangastel_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vangastel_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vangastel_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanmastrigt_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanos_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vantricht_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanwinkel_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandermeer_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaucher_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veen_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velthorst_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verdoux_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vinkers_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vreeker_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wade_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wade_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weiser_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whitty_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wiles_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">williams_1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winton-brown_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wright_1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zammit_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zammit_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zammit_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">most frequent use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zammit_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang-wong_1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ziermans_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandermeerandvelthorst_2015</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
@@ -1579,32 +1564,32 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1613,1866 +1598,1866 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
-        <v>32</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>38</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>39</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>41</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D43" t="n">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>45</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D47" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>47</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D50" t="n">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D52" t="n">
-        <v>51</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D53" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D54" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D55" t="n">
-        <v>54</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D56" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D57" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D58" t="n">
-        <v>57</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D59" t="n">
-        <v>58</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D60" t="n">
-        <v>59</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D61" t="n">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>61</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D63" t="n">
-        <v>62</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D64" t="n">
-        <v>63</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D65" t="n">
-        <v>64</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D66" t="n">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D67" t="n">
-        <v>65</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D68" t="n">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D69" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D70" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D72" t="n">
-        <v>71</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D73" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D74" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D75" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D76" t="n">
-        <v>81</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D77" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D78" t="n">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D79" t="n">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D80" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D81" t="n">
-        <v>76</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D82" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D83" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D84" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D85" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D86" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D87" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D88" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D89" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D90" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D91" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D92" t="n">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D93" t="n">
-        <v>92</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>93</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D95" t="n">
-        <v>94</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D96" t="n">
-        <v>95</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D97" t="n">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D98" t="n">
-        <v>97</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D99" t="n">
-        <v>98</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>99</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D101" t="n">
-        <v>100</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D102" t="n">
-        <v>101</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D103" t="n">
-        <v>102</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D104" t="n">
-        <v>103</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D105" t="n">
-        <v>104</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D106" t="n">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D107" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D108" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D109" t="n">
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D110" t="n">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D111" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D112" t="n">
-        <v>111</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D113" t="n">
-        <v>113</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D114" t="n">
-        <v>112</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D115" t="n">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" t="n">
         <v>49</v>
-      </c>
-      <c r="C116" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D117" t="n">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D118" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D119" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D120" t="n">
-        <v>117</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="D121" t="n">
-        <v>119</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D122" t="n">
-        <v>120</v>
+        <v>244</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D123" t="n">
-        <v>121</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D124" t="n">
-        <v>122</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D125" t="n">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D126" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D127" t="n">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D128" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D129" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D130" t="n">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D131" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D132" t="n">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="D133" t="n">
-        <v>132</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D134" t="n">
-        <v>133</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D135" t="n">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D136" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D137" t="n">
-        <v>136</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D138" t="n">
         <v>137</v>
@@ -3480,1553 +3465,1553 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="D139" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B140" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="D140" t="n">
-        <v>138</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D141" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D142" t="n">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="D143" t="n">
-        <v>143</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D144" t="n">
-        <v>142</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D145" t="n">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="D146" t="n">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C147" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D147" t="n">
-        <v>146</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D148" t="n">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D149" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="D150" t="n">
-        <v>149</v>
+        <v>89</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D151" t="n">
-        <v>150</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B152" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="D152" t="n">
-        <v>151</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D153" t="n">
-        <v>152</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D154" t="n">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D155" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D156" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D157" t="n">
-        <v>156</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D158" t="n">
-        <v>157</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D159" t="n">
-        <v>158</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D160" t="n">
-        <v>159</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D161" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D162" t="n">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D163" t="n">
-        <v>162</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D164" t="n">
-        <v>163</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D165" t="n">
-        <v>165</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D166" t="n">
-        <v>164</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="D167" t="n">
-        <v>166</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="D168" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="D169" t="n">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="D170" t="n">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D171" t="n">
-        <v>170</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="D172" t="n">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="D173" t="n">
-        <v>172</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="D174" t="n">
-        <v>173</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="D175" t="n">
-        <v>174</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="D176" t="n">
-        <v>175</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B177" t="s">
         <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="D177" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D178" t="n">
-        <v>177</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D179" t="n">
-        <v>178</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B180" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="C180" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="D180" t="n">
-        <v>179</v>
+        <v>301</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="D181" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D182" t="n">
-        <v>181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B183" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C183" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D183" t="n">
-        <v>182</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D184" t="n">
-        <v>183</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B185" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D185" t="n">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B186" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D186" t="n">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B187" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D187" t="n">
-        <v>186</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C188" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D188" t="n">
-        <v>187</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B189" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C189" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D189" t="n">
-        <v>188</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C190" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D190" t="n">
-        <v>189</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D191" t="n">
-        <v>190</v>
+        <v>45</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D192" t="n">
-        <v>191</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="D193" t="n">
-        <v>192</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D194" t="n">
-        <v>193</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C195" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D195" t="n">
-        <v>194</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B196" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D196" t="n">
-        <v>195</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B197" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="C197" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="D197" t="n">
-        <v>196</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D198" t="n">
-        <v>197</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D199" t="n">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D200" t="n">
-        <v>199</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="D201" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D202" t="n">
-        <v>201</v>
+        <v>159</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D203" t="n">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="D204" t="n">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="D205" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D206" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D207" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="D208" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D209" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="D210" t="n">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B211" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D211" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="D212" t="n">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="D213" t="n">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B214" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D214" t="n">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B215" t="s">
         <v>210</v>
       </c>
       <c r="C215" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D215" t="n">
-        <v>214</v>
+        <v>260</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C216" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D216" t="n">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="D217" t="n">
-        <v>216</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C218" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="D218" t="n">
-        <v>217</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="D219" t="n">
-        <v>218</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B220" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D220" t="n">
-        <v>219</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="C221" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="D221" t="n">
-        <v>220</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="C222" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="D222" t="n">
-        <v>221</v>
+        <v>296</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D223" t="n">
-        <v>222</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D224" t="n">
-        <v>223</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C225" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D225" t="n">
-        <v>224</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D226" t="n">
-        <v>225</v>
+        <v>332</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="D227" t="n">
-        <v>226</v>
+        <v>337</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B228" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D228" t="n">
-        <v>227</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="B229" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="D229" t="n">
-        <v>228</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B230" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="D230" t="n">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="D231" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="D232" t="n">
-        <v>231</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B233" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="C233" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D233" t="n">
-        <v>232</v>
+        <v>151</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="C234" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="D234" t="n">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="D235" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="D236" t="n">
-        <v>235</v>
+        <v>101</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="D237" t="n">
-        <v>236</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B238" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="C238" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="D238" t="n">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="D239" t="n">
-        <v>238</v>
+        <v>123</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="C240" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="D240" t="n">
-        <v>239</v>
+        <v>179</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="D241" t="n">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="C242" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="D242" t="n">
-        <v>241</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="D243" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="D244" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="D245" t="n">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C246" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="D246" t="n">
-        <v>245</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="D247" t="n">
-        <v>246</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="C248" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="D248" t="n">
-        <v>248</v>
+        <v>145</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C249" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="D249" t="n">
         <v>247</v>
@@ -5034,13 +5019,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B250" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C250" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="D250" t="n">
         <v>249</v>
@@ -5048,1206 +5033,1206 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="D251" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B252" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="D252" t="n">
-        <v>251</v>
+        <v>142</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="D253" t="n">
-        <v>252</v>
+        <v>326</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="D254" t="n">
-        <v>253</v>
+        <v>194</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="C255" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="D255" t="n">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="D256" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="D257" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="C258" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="D258" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="C259" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="D259" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="D260" t="n">
-        <v>259</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="D261" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B262" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="D262" t="n">
-        <v>261</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B263" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="D263" t="n">
-        <v>262</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D264" t="n">
-        <v>263</v>
+        <v>36</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="D265" t="n">
-        <v>264</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B266" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="D266" t="n">
-        <v>265</v>
+        <v>66</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B267" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="D267" t="n">
-        <v>266</v>
+        <v>96</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B268" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D268" t="n">
-        <v>267</v>
+        <v>108</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B269" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D269" t="n">
-        <v>268</v>
+        <v>110</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D270" t="n">
-        <v>269</v>
+        <v>126</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B271" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D271" t="n">
-        <v>270</v>
+        <v>133</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B272" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D272" t="n">
-        <v>271</v>
+        <v>224</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B273" t="s">
-        <v>303</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="D273" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D274" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B275" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D275" t="n">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D276" t="n">
-        <v>274</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D277" t="n">
-        <v>275</v>
+        <v>191</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D278" t="n">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B279" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D279" t="n">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D280" t="n">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="C281" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="D281" t="n">
-        <v>280</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B282" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="C282" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D282" t="n">
-        <v>282</v>
+        <v>109</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B283" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D283" t="n">
-        <v>281</v>
+        <v>136</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="C284" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D284" t="n">
-        <v>283</v>
+        <v>147</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D285" t="n">
-        <v>285</v>
+        <v>180</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B286" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="C286" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="D286" t="n">
-        <v>284</v>
+        <v>184</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="B287" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="C287" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D287" t="n">
-        <v>286</v>
+        <v>186</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D288" t="n">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B289" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="C289" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D289" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D290" t="n">
-        <v>289</v>
+        <v>157</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D291" t="n">
-        <v>290</v>
+        <v>152</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B292" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="C292" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D292" t="n">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B293" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="C293" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="D293" t="n">
-        <v>293</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B294" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="C294" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="D294" t="n">
-        <v>292</v>
+        <v>240</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B295" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="C295" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D295" t="n">
-        <v>294</v>
+        <v>84</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B296" t="s">
-        <v>67</v>
+        <v>337</v>
       </c>
       <c r="C296" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="D296" t="n">
-        <v>295</v>
+        <v>33</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B297" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="C297" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="D297" t="n">
-        <v>296</v>
+        <v>138</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C298" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D298" t="n">
-        <v>297</v>
+        <v>114</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B299" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D299" t="n">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D300" t="n">
-        <v>299</v>
+        <v>82</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B301" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D301" t="n">
-        <v>300</v>
+        <v>83</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B302" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D302" t="n">
-        <v>301</v>
+        <v>58</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C303" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="D303" t="n">
-        <v>302</v>
+        <v>238</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B304" t="s">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="C304" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D304" t="n">
-        <v>303</v>
+        <v>198</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B305" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C305" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="D305" t="n">
-        <v>304</v>
+        <v>144</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="C306" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D306" t="n">
-        <v>305</v>
+        <v>222</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B307" t="s">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D307" t="n">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="D308" t="n">
-        <v>307</v>
+        <v>176</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B309" t="s">
-        <v>8</v>
+        <v>352</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D309" t="n">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B310" t="s">
-        <v>8</v>
+        <v>352</v>
       </c>
       <c r="C310" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="D310" t="n">
-        <v>310</v>
+        <v>219</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B311" t="s">
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="C311" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="D311" t="n">
-        <v>309</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B312" t="s">
-        <v>8</v>
+        <v>357</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D312" t="n">
-        <v>311</v>
+        <v>56</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B313" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="C313" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
       <c r="D313" t="n">
-        <v>312</v>
+        <v>195</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B314" t="s">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="C314" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="D314" t="n">
-        <v>313</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B315" t="s">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="C315" t="s">
-        <v>68</v>
+        <v>299</v>
       </c>
       <c r="D315" t="n">
-        <v>316</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B316" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="C316" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="D316" t="n">
-        <v>318</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D317" t="n">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="D318" t="n">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>367</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D319" t="n">
-        <v>320</v>
+        <v>185</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>369</v>
       </c>
       <c r="C320" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="D320" t="n">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B321" t="s">
-        <v>8</v>
+        <v>369</v>
       </c>
       <c r="C321" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="D321" t="n">
-        <v>322</v>
+        <v>85</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B322" t="s">
-        <v>123</v>
+        <v>369</v>
       </c>
       <c r="C322" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="D322" t="n">
-        <v>323</v>
+        <v>210</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C323" t="s">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="D323" t="n">
-        <v>314</v>
+        <v>70</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B324" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="C324" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="D324" t="n">
-        <v>324</v>
+        <v>79</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="D325" t="n">
-        <v>325</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B326" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C326" t="s">
-        <v>9</v>
+        <v>374</v>
       </c>
       <c r="D326" t="n">
-        <v>326</v>
+        <v>229</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B327" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="D327" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C328" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="D328" t="n">
-        <v>328</v>
+        <v>140</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C329" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="D329" t="n">
-        <v>329</v>
+        <v>131</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B330" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="D330" t="n">
-        <v>330</v>
+        <v>213</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C331" t="s">
+        <v>380</v>
+      </c>
+      <c r="D331" t="n">
         <v>187</v>
-      </c>
-      <c r="D331" t="n">
-        <v>331</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B332" t="s">
-        <v>8</v>
+        <v>373</v>
       </c>
       <c r="C332" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="D332" t="n">
-        <v>332</v>
+        <v>182</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B333" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="C333" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="D333" t="n">
-        <v>333</v>
+        <v>148</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>388</v>
       </c>
       <c r="C334" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="D334" t="n">
-        <v>334</v>
+        <v>51</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B335" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="C335" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="D335" t="n">
-        <v>335</v>
+        <v>65</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
+        <v>390</v>
+      </c>
+      <c r="B336" t="s">
         <v>391</v>
       </c>
-      <c r="B336" t="s">
-        <v>162</v>
-      </c>
       <c r="C336" t="s">
-        <v>163</v>
+        <v>380</v>
       </c>
       <c r="D336" t="n">
-        <v>336</v>
+        <v>115</v>
       </c>
     </row>
     <row r="337">
@@ -6255,13 +6240,13 @@
         <v>392</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>391</v>
       </c>
       <c r="C337" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="D337" t="n">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="338">
@@ -6269,13 +6254,13 @@
         <v>393</v>
       </c>
       <c r="B338" t="s">
-        <v>8</v>
+        <v>391</v>
       </c>
       <c r="C338" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="D338" t="n">
-        <v>341</v>
+        <v>228</v>
       </c>
     </row>
     <row r="339">
@@ -6283,83 +6268,13 @@
         <v>394</v>
       </c>
       <c r="B339" t="s">
-        <v>8</v>
+        <v>395</v>
       </c>
       <c r="C339" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="D339" t="n">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>395</v>
-      </c>
-      <c r="B340" t="s">
-        <v>396</v>
-      </c>
-      <c r="C340" t="s">
-        <v>57</v>
-      </c>
-      <c r="D340" t="n">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>397</v>
-      </c>
-      <c r="B341" t="s">
-        <v>103</v>
-      </c>
-      <c r="C341" t="s">
-        <v>104</v>
-      </c>
-      <c r="D341" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>398</v>
-      </c>
-      <c r="B342" t="s">
-        <v>5</v>
-      </c>
-      <c r="C342" t="s">
-        <v>6</v>
-      </c>
-      <c r="D342" t="n">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>399</v>
-      </c>
-      <c r="B343" t="s">
-        <v>8</v>
-      </c>
-      <c r="C343" t="s">
-        <v>9</v>
-      </c>
-      <c r="D343" t="n">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>400</v>
-      </c>
-      <c r="B344" t="s">
-        <v>210</v>
-      </c>
-      <c r="C344" t="s">
-        <v>187</v>
-      </c>
-      <c r="D344" t="n">
-        <v>315</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/02_data/cleandata/idstocheck.xlsx
+++ b/02_data/cleandata/idstocheck.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t xml:space="preserve">studycode</t>
   </si>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">transition to psychosis</t>
   </si>
   <si>
-    <t xml:space="preserve">kristensenandcadenhead_2007</t>
+    <t xml:space="preserve">kristensen_2007</t>
   </si>
   <si>
     <t xml:space="preserve">auther_2012</t>
@@ -521,9 +521,6 @@
     <t xml:space="preserve">dragt_2012</t>
   </si>
   <si>
-    <t xml:space="preserve">kristensen_2007</t>
-  </si>
-  <si>
     <t xml:space="preserve">dragt_2010</t>
   </si>
   <si>
@@ -542,7 +539,7 @@
     <t xml:space="preserve">berger_2016</t>
   </si>
   <si>
-    <t xml:space="preserve">bloemen_2010</t>
+    <t xml:space="preserve">bloemen_2009</t>
   </si>
   <si>
     <t xml:space="preserve">bousman_2013</t>
@@ -941,7 +938,7 @@
     <t xml:space="preserve">hadden_2018</t>
   </si>
   <si>
-    <t xml:space="preserve">ouellett-plamondon_2017</t>
+    <t xml:space="preserve">ouellet-plamondon_2017</t>
   </si>
   <si>
     <t xml:space="preserve">seddon_2016</t>
@@ -1556,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -1570,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
@@ -1584,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
@@ -1598,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
@@ -1612,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -1626,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
@@ -1668,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
@@ -1682,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12">
@@ -1710,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14">
@@ -1724,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15">
@@ -1738,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16">
@@ -1766,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18">
@@ -1864,7 +1861,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -1892,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
@@ -1906,7 +1903,7 @@
         <v>28</v>
       </c>
       <c r="D27" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28">
@@ -1934,7 +1931,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
@@ -1962,7 +1959,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
@@ -2074,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="D39" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
@@ -2088,7 +2085,7 @@
         <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41">
@@ -2116,7 +2113,7 @@
         <v>28</v>
       </c>
       <c r="D42" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
@@ -2130,7 +2127,7 @@
         <v>38</v>
       </c>
       <c r="D43" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44">
@@ -2158,7 +2155,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46">
@@ -2172,7 +2169,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
@@ -2200,7 +2197,7 @@
         <v>41</v>
       </c>
       <c r="D48" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49">
@@ -2214,7 +2211,7 @@
         <v>61</v>
       </c>
       <c r="D49" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50">
@@ -2256,7 +2253,7 @@
         <v>61</v>
       </c>
       <c r="D52" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
@@ -2298,7 +2295,7 @@
         <v>61</v>
       </c>
       <c r="D55" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56">
@@ -2340,7 +2337,7 @@
         <v>61</v>
       </c>
       <c r="D58" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2351,7 @@
         <v>61</v>
       </c>
       <c r="D59" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60">
@@ -2368,7 +2365,7 @@
         <v>61</v>
       </c>
       <c r="D60" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61">
@@ -2382,7 +2379,7 @@
         <v>61</v>
       </c>
       <c r="D61" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62">
@@ -2396,7 +2393,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63">
@@ -2410,7 +2407,7 @@
         <v>76</v>
       </c>
       <c r="D63" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64">
@@ -2424,7 +2421,7 @@
         <v>76</v>
       </c>
       <c r="D64" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65">
@@ -2438,7 +2435,7 @@
         <v>76</v>
       </c>
       <c r="D65" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66">
@@ -2466,7 +2463,7 @@
         <v>76</v>
       </c>
       <c r="D67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68">
@@ -2522,7 +2519,7 @@
         <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72">
@@ -2536,7 +2533,7 @@
         <v>76</v>
       </c>
       <c r="D72" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -2592,7 +2589,7 @@
         <v>90</v>
       </c>
       <c r="D76" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77">
@@ -2662,7 +2659,7 @@
         <v>90</v>
       </c>
       <c r="D81" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82">
@@ -2844,7 +2841,7 @@
         <v>99</v>
       </c>
       <c r="D94" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95">
@@ -2858,7 +2855,7 @@
         <v>99</v>
       </c>
       <c r="D95" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96">
@@ -2872,7 +2869,7 @@
         <v>99</v>
       </c>
       <c r="D96" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97">
@@ -2886,7 +2883,7 @@
         <v>99</v>
       </c>
       <c r="D97" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
@@ -2900,7 +2897,7 @@
         <v>99</v>
       </c>
       <c r="D98" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99">
@@ -2914,7 +2911,7 @@
         <v>99</v>
       </c>
       <c r="D99" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100">
@@ -2928,7 +2925,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101">
@@ -2942,7 +2939,7 @@
         <v>99</v>
       </c>
       <c r="D101" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102">
@@ -2956,7 +2953,7 @@
         <v>99</v>
       </c>
       <c r="D102" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103">
@@ -2970,7 +2967,7 @@
         <v>99</v>
       </c>
       <c r="D103" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104">
@@ -2984,7 +2981,7 @@
         <v>99</v>
       </c>
       <c r="D104" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105">
@@ -2998,7 +2995,7 @@
         <v>99</v>
       </c>
       <c r="D105" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106">
@@ -3082,7 +3079,7 @@
         <v>99</v>
       </c>
       <c r="D111" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112">
@@ -3096,7 +3093,7 @@
         <v>99</v>
       </c>
       <c r="D112" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113">
@@ -3110,7 +3107,7 @@
         <v>99</v>
       </c>
       <c r="D113" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114">
@@ -3124,7 +3121,7 @@
         <v>99</v>
       </c>
       <c r="D114" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115">
@@ -3208,7 +3205,7 @@
         <v>99</v>
       </c>
       <c r="D120" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
@@ -3222,7 +3219,7 @@
         <v>99</v>
       </c>
       <c r="D121" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122">
@@ -3236,7 +3233,7 @@
         <v>99</v>
       </c>
       <c r="D122" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123">
@@ -3250,7 +3247,7 @@
         <v>99</v>
       </c>
       <c r="D123" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124">
@@ -3264,7 +3261,7 @@
         <v>99</v>
       </c>
       <c r="D124" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125">
@@ -3278,7 +3275,7 @@
         <v>99</v>
       </c>
       <c r="D125" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126">
@@ -3348,7 +3345,7 @@
         <v>99</v>
       </c>
       <c r="D130" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131">
@@ -3390,7 +3387,7 @@
         <v>99</v>
       </c>
       <c r="D133" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134">
@@ -3404,7 +3401,7 @@
         <v>99</v>
       </c>
       <c r="D134" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135">
@@ -3432,7 +3429,7 @@
         <v>99</v>
       </c>
       <c r="D136" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137">
@@ -3446,7 +3443,7 @@
         <v>99</v>
       </c>
       <c r="D137" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138">
@@ -3488,7 +3485,7 @@
         <v>99</v>
       </c>
       <c r="D140" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141">
@@ -3516,7 +3513,7 @@
         <v>159</v>
       </c>
       <c r="D142" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143">
@@ -3544,7 +3541,7 @@
         <v>159</v>
       </c>
       <c r="D144" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145">
@@ -3614,7 +3611,7 @@
         <v>159</v>
       </c>
       <c r="D149" t="n">
-        <v>170</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150">
@@ -3628,7 +3625,7 @@
         <v>159</v>
       </c>
       <c r="D150" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151">
@@ -3642,7 +3639,7 @@
         <v>159</v>
       </c>
       <c r="D151" t="n">
-        <v>47</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152">
@@ -3656,7 +3653,7 @@
         <v>159</v>
       </c>
       <c r="D152" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -3670,7 +3667,7 @@
         <v>159</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
@@ -3684,7 +3681,7 @@
         <v>159</v>
       </c>
       <c r="D154" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
@@ -3698,7 +3695,7 @@
         <v>159</v>
       </c>
       <c r="D155" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
@@ -3712,7 +3709,7 @@
         <v>159</v>
       </c>
       <c r="D156" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157">
@@ -3726,7 +3723,7 @@
         <v>159</v>
       </c>
       <c r="D157" t="n">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158">
@@ -3740,7 +3737,7 @@
         <v>159</v>
       </c>
       <c r="D158" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159">
@@ -3754,7 +3751,7 @@
         <v>159</v>
       </c>
       <c r="D159" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160">
@@ -3768,7 +3765,7 @@
         <v>159</v>
       </c>
       <c r="D160" t="n">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161">
@@ -3782,7 +3779,7 @@
         <v>159</v>
       </c>
       <c r="D161" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162">
@@ -3796,7 +3793,7 @@
         <v>159</v>
       </c>
       <c r="D162" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163">
@@ -3810,7 +3807,7 @@
         <v>159</v>
       </c>
       <c r="D163" t="n">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164">
@@ -3824,7 +3821,7 @@
         <v>159</v>
       </c>
       <c r="D164" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165">
@@ -3838,7 +3835,7 @@
         <v>159</v>
       </c>
       <c r="D165" t="n">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166">
@@ -3852,7 +3849,7 @@
         <v>159</v>
       </c>
       <c r="D166" t="n">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167">
@@ -3863,24 +3860,24 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="D167" t="n">
-        <v>338</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
         <v>188</v>
       </c>
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" t="s">
-        <v>189</v>
-      </c>
       <c r="D168" t="n">
-        <v>166</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169">
@@ -3891,24 +3888,24 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D169" t="n">
-        <v>232</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>192</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
         <v>191</v>
       </c>
-      <c r="B170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" t="s">
-        <v>192</v>
-      </c>
       <c r="D170" t="n">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171">
@@ -3919,10 +3916,10 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D171" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172">
@@ -3933,10 +3930,10 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D172" t="n">
-        <v>217</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173">
@@ -3944,27 +3941,27 @@
         <v>195</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="C173" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D173" t="n">
-        <v>317</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174" t="s">
         <v>196</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>197</v>
       </c>
-      <c r="C174" t="s">
-        <v>198</v>
-      </c>
       <c r="D174" t="n">
-        <v>119</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175">
@@ -3972,27 +3969,27 @@
         <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D175" t="n">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" t="s">
         <v>200</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>201</v>
       </c>
-      <c r="C176" t="s">
-        <v>202</v>
-      </c>
       <c r="D176" t="n">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177">
@@ -4000,13 +3997,13 @@
         <v>203</v>
       </c>
       <c r="B177" t="s">
+        <v>200</v>
+      </c>
+      <c r="C177" t="s">
         <v>201</v>
       </c>
-      <c r="C177" t="s">
-        <v>202</v>
-      </c>
       <c r="D177" t="n">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178">
@@ -4014,13 +4011,13 @@
         <v>204</v>
       </c>
       <c r="B178" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" t="s">
         <v>201</v>
       </c>
-      <c r="C178" t="s">
-        <v>202</v>
-      </c>
       <c r="D178" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179">
@@ -4028,27 +4025,27 @@
         <v>205</v>
       </c>
       <c r="B179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" t="s">
         <v>201</v>
       </c>
-      <c r="C179" t="s">
-        <v>202</v>
-      </c>
       <c r="D179" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D180" t="n">
-        <v>301</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181">
@@ -4056,27 +4053,27 @@
         <v>208</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="C181" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D181" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>211</v>
+      </c>
+      <c r="B182" t="s">
         <v>209</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>210</v>
       </c>
-      <c r="C182" t="s">
-        <v>211</v>
-      </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -4084,13 +4081,13 @@
         <v>212</v>
       </c>
       <c r="B183" t="s">
+        <v>209</v>
+      </c>
+      <c r="C183" t="s">
         <v>210</v>
       </c>
-      <c r="C183" t="s">
-        <v>211</v>
-      </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
@@ -4098,13 +4095,13 @@
         <v>213</v>
       </c>
       <c r="B184" t="s">
+        <v>209</v>
+      </c>
+      <c r="C184" t="s">
         <v>210</v>
       </c>
-      <c r="C184" t="s">
-        <v>211</v>
-      </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -4112,13 +4109,13 @@
         <v>214</v>
       </c>
       <c r="B185" t="s">
+        <v>209</v>
+      </c>
+      <c r="C185" t="s">
         <v>210</v>
       </c>
-      <c r="C185" t="s">
-        <v>211</v>
-      </c>
       <c r="D185" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
@@ -4126,13 +4123,13 @@
         <v>215</v>
       </c>
       <c r="B186" t="s">
+        <v>209</v>
+      </c>
+      <c r="C186" t="s">
         <v>210</v>
       </c>
-      <c r="C186" t="s">
-        <v>211</v>
-      </c>
       <c r="D186" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
@@ -4140,13 +4137,13 @@
         <v>216</v>
       </c>
       <c r="B187" t="s">
+        <v>209</v>
+      </c>
+      <c r="C187" t="s">
         <v>210</v>
       </c>
-      <c r="C187" t="s">
-        <v>211</v>
-      </c>
       <c r="D187" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188">
@@ -4154,13 +4151,13 @@
         <v>217</v>
       </c>
       <c r="B188" t="s">
+        <v>209</v>
+      </c>
+      <c r="C188" t="s">
         <v>210</v>
       </c>
-      <c r="C188" t="s">
-        <v>211</v>
-      </c>
       <c r="D188" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189">
@@ -4168,13 +4165,13 @@
         <v>218</v>
       </c>
       <c r="B189" t="s">
+        <v>209</v>
+      </c>
+      <c r="C189" t="s">
         <v>210</v>
       </c>
-      <c r="C189" t="s">
-        <v>211</v>
-      </c>
       <c r="D189" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190">
@@ -4182,13 +4179,13 @@
         <v>219</v>
       </c>
       <c r="B190" t="s">
+        <v>209</v>
+      </c>
+      <c r="C190" t="s">
         <v>210</v>
       </c>
-      <c r="C190" t="s">
-        <v>211</v>
-      </c>
       <c r="D190" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191">
@@ -4196,13 +4193,13 @@
         <v>220</v>
       </c>
       <c r="B191" t="s">
+        <v>209</v>
+      </c>
+      <c r="C191" t="s">
         <v>210</v>
       </c>
-      <c r="C191" t="s">
-        <v>211</v>
-      </c>
       <c r="D191" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
@@ -4210,13 +4207,13 @@
         <v>221</v>
       </c>
       <c r="B192" t="s">
+        <v>209</v>
+      </c>
+      <c r="C192" t="s">
         <v>210</v>
       </c>
-      <c r="C192" t="s">
-        <v>211</v>
-      </c>
       <c r="D192" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193">
@@ -4224,13 +4221,13 @@
         <v>222</v>
       </c>
       <c r="B193" t="s">
+        <v>209</v>
+      </c>
+      <c r="C193" t="s">
         <v>210</v>
       </c>
-      <c r="C193" t="s">
-        <v>211</v>
-      </c>
       <c r="D193" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194">
@@ -4238,13 +4235,13 @@
         <v>223</v>
       </c>
       <c r="B194" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" t="s">
         <v>210</v>
       </c>
-      <c r="C194" t="s">
-        <v>211</v>
-      </c>
       <c r="D194" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
@@ -4252,13 +4249,13 @@
         <v>224</v>
       </c>
       <c r="B195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C195" t="s">
         <v>210</v>
       </c>
-      <c r="C195" t="s">
-        <v>211</v>
-      </c>
       <c r="D195" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="196">
@@ -4266,13 +4263,13 @@
         <v>225</v>
       </c>
       <c r="B196" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" t="s">
         <v>210</v>
       </c>
-      <c r="C196" t="s">
-        <v>211</v>
-      </c>
       <c r="D196" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197">
@@ -4280,13 +4277,13 @@
         <v>226</v>
       </c>
       <c r="B197" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" t="s">
         <v>210</v>
       </c>
-      <c r="C197" t="s">
-        <v>211</v>
-      </c>
       <c r="D197" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198">
@@ -4294,13 +4291,13 @@
         <v>227</v>
       </c>
       <c r="B198" t="s">
+        <v>209</v>
+      </c>
+      <c r="C198" t="s">
         <v>210</v>
       </c>
-      <c r="C198" t="s">
-        <v>211</v>
-      </c>
       <c r="D198" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199">
@@ -4308,13 +4305,13 @@
         <v>228</v>
       </c>
       <c r="B199" t="s">
+        <v>209</v>
+      </c>
+      <c r="C199" t="s">
         <v>210</v>
       </c>
-      <c r="C199" t="s">
-        <v>211</v>
-      </c>
       <c r="D199" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200">
@@ -4322,13 +4319,13 @@
         <v>229</v>
       </c>
       <c r="B200" t="s">
+        <v>209</v>
+      </c>
+      <c r="C200" t="s">
         <v>210</v>
       </c>
-      <c r="C200" t="s">
-        <v>211</v>
-      </c>
       <c r="D200" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201">
@@ -4336,13 +4333,13 @@
         <v>230</v>
       </c>
       <c r="B201" t="s">
+        <v>209</v>
+      </c>
+      <c r="C201" t="s">
         <v>210</v>
       </c>
-      <c r="C201" t="s">
-        <v>211</v>
-      </c>
       <c r="D201" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202">
@@ -4350,13 +4347,13 @@
         <v>231</v>
       </c>
       <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" t="s">
         <v>210</v>
       </c>
-      <c r="C202" t="s">
-        <v>211</v>
-      </c>
       <c r="D202" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203">
@@ -4364,13 +4361,13 @@
         <v>232</v>
       </c>
       <c r="B203" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" t="s">
         <v>210</v>
       </c>
-      <c r="C203" t="s">
-        <v>211</v>
-      </c>
       <c r="D203" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204">
@@ -4378,13 +4375,13 @@
         <v>233</v>
       </c>
       <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" t="s">
         <v>210</v>
       </c>
-      <c r="C204" t="s">
-        <v>211</v>
-      </c>
       <c r="D204" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="205">
@@ -4392,13 +4389,13 @@
         <v>234</v>
       </c>
       <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" t="s">
         <v>210</v>
       </c>
-      <c r="C205" t="s">
-        <v>211</v>
-      </c>
       <c r="D205" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206">
@@ -4406,13 +4403,13 @@
         <v>235</v>
       </c>
       <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206" t="s">
         <v>210</v>
       </c>
-      <c r="C206" t="s">
-        <v>211</v>
-      </c>
       <c r="D206" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207">
@@ -4420,13 +4417,13 @@
         <v>236</v>
       </c>
       <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="s">
         <v>210</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="n">
         <v>211</v>
-      </c>
-      <c r="D207" t="n">
-        <v>204</v>
       </c>
     </row>
     <row r="208">
@@ -4434,13 +4431,13 @@
         <v>237</v>
       </c>
       <c r="B208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" t="s">
         <v>210</v>
       </c>
-      <c r="C208" t="s">
-        <v>211</v>
-      </c>
       <c r="D208" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209">
@@ -4448,13 +4445,13 @@
         <v>238</v>
       </c>
       <c r="B209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" t="s">
         <v>210</v>
       </c>
-      <c r="C209" t="s">
-        <v>211</v>
-      </c>
       <c r="D209" t="n">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210">
@@ -4462,10 +4459,10 @@
         <v>239</v>
       </c>
       <c r="B210" t="s">
+        <v>209</v>
+      </c>
+      <c r="C210" t="s">
         <v>210</v>
-      </c>
-      <c r="C210" t="s">
-        <v>211</v>
       </c>
       <c r="D210" t="n">
         <v>234</v>
@@ -4476,10 +4473,10 @@
         <v>240</v>
       </c>
       <c r="B211" t="s">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
         <v>210</v>
-      </c>
-      <c r="C211" t="s">
-        <v>211</v>
       </c>
       <c r="D211" t="n">
         <v>235</v>
@@ -4490,13 +4487,13 @@
         <v>241</v>
       </c>
       <c r="B212" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" t="s">
         <v>210</v>
       </c>
-      <c r="C212" t="s">
-        <v>211</v>
-      </c>
       <c r="D212" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213">
@@ -4504,13 +4501,13 @@
         <v>242</v>
       </c>
       <c r="B213" t="s">
+        <v>209</v>
+      </c>
+      <c r="C213" t="s">
         <v>210</v>
       </c>
-      <c r="C213" t="s">
-        <v>211</v>
-      </c>
       <c r="D213" t="n">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214">
@@ -4518,13 +4515,13 @@
         <v>243</v>
       </c>
       <c r="B214" t="s">
+        <v>209</v>
+      </c>
+      <c r="C214" t="s">
         <v>210</v>
       </c>
-      <c r="C214" t="s">
-        <v>211</v>
-      </c>
       <c r="D214" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215">
@@ -4532,13 +4529,13 @@
         <v>244</v>
       </c>
       <c r="B215" t="s">
+        <v>209</v>
+      </c>
+      <c r="C215" t="s">
         <v>210</v>
       </c>
-      <c r="C215" t="s">
-        <v>211</v>
-      </c>
       <c r="D215" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="216">
@@ -4546,13 +4543,13 @@
         <v>245</v>
       </c>
       <c r="B216" t="s">
+        <v>209</v>
+      </c>
+      <c r="C216" t="s">
         <v>210</v>
       </c>
-      <c r="C216" t="s">
-        <v>211</v>
-      </c>
       <c r="D216" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="217">
@@ -4560,13 +4557,13 @@
         <v>246</v>
       </c>
       <c r="B217" t="s">
+        <v>209</v>
+      </c>
+      <c r="C217" t="s">
         <v>210</v>
       </c>
-      <c r="C217" t="s">
-        <v>211</v>
-      </c>
       <c r="D217" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="218">
@@ -4574,13 +4571,13 @@
         <v>247</v>
       </c>
       <c r="B218" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" t="s">
         <v>210</v>
       </c>
-      <c r="C218" t="s">
-        <v>211</v>
-      </c>
       <c r="D218" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="219">
@@ -4588,13 +4585,13 @@
         <v>248</v>
       </c>
       <c r="B219" t="s">
+        <v>209</v>
+      </c>
+      <c r="C219" t="s">
         <v>210</v>
       </c>
-      <c r="C219" t="s">
-        <v>211</v>
-      </c>
       <c r="D219" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220">
@@ -4602,10 +4599,10 @@
         <v>249</v>
       </c>
       <c r="B220" t="s">
+        <v>209</v>
+      </c>
+      <c r="C220" t="s">
         <v>210</v>
-      </c>
-      <c r="C220" t="s">
-        <v>211</v>
       </c>
       <c r="D220" t="n">
         <v>287</v>
@@ -4616,13 +4613,13 @@
         <v>250</v>
       </c>
       <c r="B221" t="s">
+        <v>209</v>
+      </c>
+      <c r="C221" t="s">
         <v>210</v>
       </c>
-      <c r="C221" t="s">
-        <v>211</v>
-      </c>
       <c r="D221" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222">
@@ -4630,13 +4627,13 @@
         <v>251</v>
       </c>
       <c r="B222" t="s">
+        <v>209</v>
+      </c>
+      <c r="C222" t="s">
         <v>210</v>
       </c>
-      <c r="C222" t="s">
-        <v>211</v>
-      </c>
       <c r="D222" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="223">
@@ -4644,10 +4641,10 @@
         <v>252</v>
       </c>
       <c r="B223" t="s">
+        <v>209</v>
+      </c>
+      <c r="C223" t="s">
         <v>210</v>
-      </c>
-      <c r="C223" t="s">
-        <v>211</v>
       </c>
       <c r="D223" t="n">
         <v>303</v>
@@ -4658,13 +4655,13 @@
         <v>253</v>
       </c>
       <c r="B224" t="s">
+        <v>209</v>
+      </c>
+      <c r="C224" t="s">
         <v>210</v>
       </c>
-      <c r="C224" t="s">
-        <v>211</v>
-      </c>
       <c r="D224" t="n">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="225">
@@ -4672,13 +4669,13 @@
         <v>254</v>
       </c>
       <c r="B225" t="s">
+        <v>209</v>
+      </c>
+      <c r="C225" t="s">
         <v>210</v>
       </c>
-      <c r="C225" t="s">
-        <v>211</v>
-      </c>
       <c r="D225" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="226">
@@ -4686,13 +4683,13 @@
         <v>255</v>
       </c>
       <c r="B226" t="s">
+        <v>209</v>
+      </c>
+      <c r="C226" t="s">
         <v>210</v>
       </c>
-      <c r="C226" t="s">
-        <v>211</v>
-      </c>
       <c r="D226" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227">
@@ -4700,27 +4697,27 @@
         <v>256</v>
       </c>
       <c r="B227" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="D227" t="n">
-        <v>337</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>258</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
         <v>257</v>
       </c>
-      <c r="B228" t="s">
-        <v>5</v>
-      </c>
-      <c r="C228" t="s">
-        <v>258</v>
-      </c>
       <c r="D228" t="n">
-        <v>73</v>
+        <v>298</v>
       </c>
     </row>
     <row r="229">
@@ -4731,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D229" t="n">
-        <v>299</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230">
@@ -4742,27 +4739,27 @@
         <v>260</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="C230" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D230" t="n">
-        <v>18</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>262</v>
+      </c>
+      <c r="B231" t="s">
         <v>261</v>
       </c>
-      <c r="B231" t="s">
-        <v>262</v>
-      </c>
       <c r="C231" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D231" t="n">
-        <v>231</v>
+        <v>149</v>
       </c>
     </row>
     <row r="232">
@@ -4770,13 +4767,13 @@
         <v>263</v>
       </c>
       <c r="B232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C232" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D232" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233">
@@ -4784,13 +4781,13 @@
         <v>264</v>
       </c>
       <c r="B233" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C233" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D233" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234">
@@ -4798,13 +4795,13 @@
         <v>265</v>
       </c>
       <c r="B234" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C234" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D234" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235">
@@ -4812,13 +4809,13 @@
         <v>266</v>
       </c>
       <c r="B235" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C235" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D235" t="n">
-        <v>248</v>
+        <v>101</v>
       </c>
     </row>
     <row r="236">
@@ -4826,13 +4823,13 @@
         <v>267</v>
       </c>
       <c r="B236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C236" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D236" t="n">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="237">
@@ -4840,27 +4837,27 @@
         <v>268</v>
       </c>
       <c r="B237" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C237" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D237" t="n">
-        <v>30</v>
+        <v>264</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>271</v>
+      </c>
+      <c r="B238" t="s">
         <v>269</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>270</v>
       </c>
-      <c r="C238" t="s">
-        <v>271</v>
-      </c>
       <c r="D238" t="n">
-        <v>265</v>
+        <v>123</v>
       </c>
     </row>
     <row r="239">
@@ -4868,13 +4865,13 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
+        <v>269</v>
+      </c>
+      <c r="C239" t="s">
         <v>270</v>
       </c>
-      <c r="C239" t="s">
-        <v>271</v>
-      </c>
       <c r="D239" t="n">
-        <v>123</v>
+        <v>178</v>
       </c>
     </row>
     <row r="240">
@@ -4882,13 +4879,13 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
+        <v>269</v>
+      </c>
+      <c r="C240" t="s">
         <v>270</v>
       </c>
-      <c r="C240" t="s">
-        <v>271</v>
-      </c>
       <c r="D240" t="n">
-        <v>179</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241">
@@ -4896,13 +4893,13 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
+        <v>269</v>
+      </c>
+      <c r="C241" t="s">
         <v>270</v>
       </c>
-      <c r="C241" t="s">
-        <v>271</v>
-      </c>
       <c r="D241" t="n">
-        <v>41</v>
+        <v>292</v>
       </c>
     </row>
     <row r="242">
@@ -4910,13 +4907,13 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
+        <v>269</v>
+      </c>
+      <c r="C242" t="s">
         <v>270</v>
       </c>
-      <c r="C242" t="s">
-        <v>271</v>
-      </c>
       <c r="D242" t="n">
-        <v>293</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243">
@@ -4924,13 +4921,13 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
+        <v>269</v>
+      </c>
+      <c r="C243" t="s">
         <v>270</v>
       </c>
-      <c r="C243" t="s">
-        <v>271</v>
-      </c>
       <c r="D243" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244">
@@ -4938,13 +4935,13 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
+        <v>269</v>
+      </c>
+      <c r="C244" t="s">
         <v>270</v>
       </c>
-      <c r="C244" t="s">
-        <v>271</v>
-      </c>
       <c r="D244" t="n">
-        <v>241</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245">
@@ -4952,13 +4949,13 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
+        <v>269</v>
+      </c>
+      <c r="C245" t="s">
         <v>270</v>
       </c>
-      <c r="C245" t="s">
-        <v>271</v>
-      </c>
       <c r="D245" t="n">
-        <v>282</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246">
@@ -4966,13 +4963,13 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
+        <v>269</v>
+      </c>
+      <c r="C246" t="s">
         <v>270</v>
       </c>
-      <c r="C246" t="s">
-        <v>271</v>
-      </c>
       <c r="D246" t="n">
-        <v>54</v>
+        <v>310</v>
       </c>
     </row>
     <row r="247">
@@ -4980,13 +4977,13 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
+        <v>269</v>
+      </c>
+      <c r="C247" t="s">
         <v>270</v>
       </c>
-      <c r="C247" t="s">
-        <v>271</v>
-      </c>
       <c r="D247" t="n">
-        <v>311</v>
+        <v>145</v>
       </c>
     </row>
     <row r="248">
@@ -4994,27 +4991,27 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
+        <v>282</v>
+      </c>
+      <c r="C248" t="s">
         <v>270</v>
       </c>
-      <c r="C248" t="s">
-        <v>271</v>
-      </c>
       <c r="D248" t="n">
-        <v>145</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>283</v>
+      </c>
+      <c r="B249" t="s">
         <v>282</v>
       </c>
-      <c r="B249" t="s">
-        <v>283</v>
-      </c>
       <c r="C249" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D249" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250">
@@ -5022,13 +5019,13 @@
         <v>284</v>
       </c>
       <c r="B250" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C250" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D250" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251">
@@ -5036,27 +5033,27 @@
         <v>285</v>
       </c>
       <c r="B251" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D251" t="n">
-        <v>270</v>
+        <v>142</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>287</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
         <v>286</v>
       </c>
-      <c r="B252" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" t="s">
-        <v>287</v>
-      </c>
       <c r="D252" t="n">
-        <v>142</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253">
@@ -5067,10 +5064,10 @@
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D253" t="n">
-        <v>326</v>
+        <v>193</v>
       </c>
     </row>
     <row r="254">
@@ -5078,27 +5075,27 @@
         <v>289</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="C254" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D254" t="n">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>291</v>
+      </c>
+      <c r="B255" t="s">
         <v>290</v>
       </c>
-      <c r="B255" t="s">
-        <v>291</v>
-      </c>
       <c r="C255" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D255" t="n">
-        <v>214</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256">
@@ -5106,13 +5103,13 @@
         <v>292</v>
       </c>
       <c r="B256" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C256" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D256" t="n">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="257">
@@ -5120,13 +5117,13 @@
         <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C257" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D257" t="n">
-        <v>294</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258">
@@ -5134,13 +5131,13 @@
         <v>294</v>
       </c>
       <c r="B258" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C258" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D258" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="259">
@@ -5148,13 +5145,13 @@
         <v>295</v>
       </c>
       <c r="B259" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C259" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D259" t="n">
-        <v>262</v>
+        <v>162</v>
       </c>
     </row>
     <row r="260">
@@ -5162,13 +5159,13 @@
         <v>296</v>
       </c>
       <c r="B260" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C260" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D260" t="n">
-        <v>162</v>
+        <v>309</v>
       </c>
     </row>
     <row r="261">
@@ -5176,27 +5173,27 @@
         <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>291</v>
+        <v>5</v>
       </c>
       <c r="C261" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D261" t="n">
-        <v>310</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>299</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
         <v>298</v>
       </c>
-      <c r="B262" t="s">
-        <v>5</v>
-      </c>
-      <c r="C262" t="s">
-        <v>299</v>
-      </c>
       <c r="D262" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263">
@@ -5207,10 +5204,10 @@
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D263" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264">
@@ -5221,10 +5218,10 @@
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D264" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="265">
@@ -5235,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D265" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="266">
@@ -5249,10 +5246,10 @@
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D266" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="267">
@@ -5263,10 +5260,10 @@
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D267" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="268">
@@ -5277,10 +5274,10 @@
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D268" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="269">
@@ -5291,10 +5288,10 @@
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D269" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="270">
@@ -5305,10 +5302,10 @@
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D270" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="271">
@@ -5319,10 +5316,10 @@
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D271" t="n">
-        <v>133</v>
+        <v>223</v>
       </c>
     </row>
     <row r="272">
@@ -5333,10 +5330,10 @@
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D272" t="n">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273">
@@ -5347,10 +5344,10 @@
         <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D273" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274">
@@ -5361,10 +5358,10 @@
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D274" t="n">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="275">
@@ -5375,10 +5372,10 @@
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D275" t="n">
-        <v>302</v>
+        <v>38</v>
       </c>
     </row>
     <row r="276">
@@ -5389,10 +5386,10 @@
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D276" t="n">
-        <v>38</v>
+        <v>190</v>
       </c>
     </row>
     <row r="277">
@@ -5403,10 +5400,10 @@
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D277" t="n">
-        <v>191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="278">
@@ -5417,10 +5414,10 @@
         <v>5</v>
       </c>
       <c r="C278" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D278" t="n">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279">
@@ -5431,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D279" t="n">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280">
@@ -5442,27 +5439,27 @@
         <v>317</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="C280" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D280" t="n">
-        <v>271</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>319</v>
+      </c>
+      <c r="B281" t="s">
         <v>318</v>
       </c>
-      <c r="B281" t="s">
-        <v>319</v>
-      </c>
       <c r="C281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D281" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="282">
@@ -5470,13 +5467,13 @@
         <v>320</v>
       </c>
       <c r="B282" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C282" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D282" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="283">
@@ -5484,13 +5481,13 @@
         <v>321</v>
       </c>
       <c r="B283" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C283" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D283" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="284">
@@ -5498,13 +5495,13 @@
         <v>322</v>
       </c>
       <c r="B284" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C284" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D284" t="n">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="285">
@@ -5512,13 +5509,13 @@
         <v>323</v>
       </c>
       <c r="B285" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C285" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D285" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="286">
@@ -5526,13 +5523,13 @@
         <v>324</v>
       </c>
       <c r="B286" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D286" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="287">
@@ -5540,13 +5537,13 @@
         <v>325</v>
       </c>
       <c r="B287" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C287" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D287" t="n">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="288">
@@ -5554,13 +5551,13 @@
         <v>326</v>
       </c>
       <c r="B288" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C288" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D288" t="n">
-        <v>227</v>
+        <v>275</v>
       </c>
     </row>
     <row r="289">
@@ -5568,13 +5565,13 @@
         <v>327</v>
       </c>
       <c r="B289" t="s">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D289" t="n">
-        <v>276</v>
+        <v>157</v>
       </c>
     </row>
     <row r="290">
@@ -5582,27 +5579,27 @@
         <v>328</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="C290" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D290" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>330</v>
+      </c>
+      <c r="B291" t="s">
         <v>329</v>
       </c>
-      <c r="B291" t="s">
-        <v>330</v>
-      </c>
       <c r="C291" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D291" t="n">
-        <v>152</v>
+        <v>256</v>
       </c>
     </row>
     <row r="292">
@@ -5610,27 +5607,27 @@
         <v>331</v>
       </c>
       <c r="B292" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C292" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D292" t="n">
-        <v>257</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>333</v>
+      </c>
+      <c r="B293" t="s">
         <v>332</v>
       </c>
-      <c r="B293" t="s">
-        <v>333</v>
-      </c>
       <c r="C293" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D293" t="n">
-        <v>87</v>
+        <v>239</v>
       </c>
     </row>
     <row r="294">
@@ -5638,13 +5635,13 @@
         <v>334</v>
       </c>
       <c r="B294" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C294" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D294" t="n">
-        <v>240</v>
+        <v>84</v>
       </c>
     </row>
     <row r="295">
@@ -5652,27 +5649,27 @@
         <v>335</v>
       </c>
       <c r="B295" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C295" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D295" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>337</v>
+      </c>
+      <c r="B296" t="s">
         <v>336</v>
       </c>
-      <c r="B296" t="s">
-        <v>337</v>
-      </c>
       <c r="C296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D296" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="297">
@@ -5680,13 +5677,13 @@
         <v>338</v>
       </c>
       <c r="B297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D297" t="n">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="298">
@@ -5694,13 +5691,13 @@
         <v>339</v>
       </c>
       <c r="B298" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D298" t="n">
-        <v>114</v>
+        <v>278</v>
       </c>
     </row>
     <row r="299">
@@ -5708,13 +5705,13 @@
         <v>340</v>
       </c>
       <c r="B299" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D299" t="n">
-        <v>279</v>
+        <v>82</v>
       </c>
     </row>
     <row r="300">
@@ -5722,13 +5719,13 @@
         <v>341</v>
       </c>
       <c r="B300" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D300" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="301">
@@ -5736,13 +5733,13 @@
         <v>342</v>
       </c>
       <c r="B301" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D301" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="302">
@@ -5750,13 +5747,13 @@
         <v>343</v>
       </c>
       <c r="B302" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C302" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D302" t="n">
-        <v>58</v>
+        <v>237</v>
       </c>
     </row>
     <row r="303">
@@ -5764,13 +5761,13 @@
         <v>344</v>
       </c>
       <c r="B303" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D303" t="n">
-        <v>238</v>
+        <v>197</v>
       </c>
     </row>
     <row r="304">
@@ -5778,13 +5775,13 @@
         <v>345</v>
       </c>
       <c r="B304" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C304" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D304" t="n">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="305">
@@ -5792,13 +5789,13 @@
         <v>346</v>
       </c>
       <c r="B305" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C305" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D305" t="n">
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="306">
@@ -5806,27 +5803,27 @@
         <v>347</v>
       </c>
       <c r="B306" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C306" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D306" t="n">
-        <v>222</v>
+        <v>154</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
+        <v>349</v>
+      </c>
+      <c r="B307" t="s">
         <v>348</v>
       </c>
-      <c r="B307" t="s">
-        <v>349</v>
-      </c>
       <c r="C307" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D307" t="n">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="308">
@@ -5834,27 +5831,27 @@
         <v>350</v>
       </c>
       <c r="B308" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C308" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D308" t="n">
-        <v>176</v>
+        <v>285</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
+        <v>352</v>
+      </c>
+      <c r="B309" t="s">
         <v>351</v>
       </c>
-      <c r="B309" t="s">
-        <v>352</v>
-      </c>
       <c r="C309" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D309" t="n">
-        <v>286</v>
+        <v>218</v>
       </c>
     </row>
     <row r="310">
@@ -5862,69 +5859,69 @@
         <v>353</v>
       </c>
       <c r="B310" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D310" t="n">
-        <v>219</v>
+        <v>19</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B311" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C311" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D311" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B312" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C312" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D312" t="n">
-        <v>56</v>
+        <v>194</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B313" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C313" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D313" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>361</v>
+      </c>
+      <c r="B314" t="s">
         <v>360</v>
       </c>
-      <c r="B314" t="s">
-        <v>361</v>
-      </c>
       <c r="C314" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D314" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315">
@@ -5932,13 +5929,13 @@
         <v>362</v>
       </c>
       <c r="B315" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C315" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D315" t="n">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316">
@@ -5946,13 +5943,13 @@
         <v>363</v>
       </c>
       <c r="B316" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C316" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D316" t="n">
-        <v>215</v>
+        <v>283</v>
       </c>
     </row>
     <row r="317">
@@ -5960,13 +5957,13 @@
         <v>364</v>
       </c>
       <c r="B317" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C317" t="s">
+        <v>298</v>
+      </c>
+      <c r="D317" t="n">
         <v>299</v>
-      </c>
-      <c r="D317" t="n">
-        <v>284</v>
       </c>
     </row>
     <row r="318">
@@ -5974,41 +5971,41 @@
         <v>365</v>
       </c>
       <c r="B318" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C318" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D318" t="n">
-        <v>300</v>
+        <v>184</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B319" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C319" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D319" t="n">
-        <v>185</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>369</v>
+      </c>
+      <c r="B320" t="s">
         <v>368</v>
       </c>
-      <c r="B320" t="s">
-        <v>369</v>
-      </c>
       <c r="C320" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D320" t="n">
-        <v>318</v>
+        <v>85</v>
       </c>
     </row>
     <row r="321">
@@ -6016,13 +6013,13 @@
         <v>370</v>
       </c>
       <c r="B321" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C321" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D321" t="n">
-        <v>85</v>
+        <v>209</v>
       </c>
     </row>
     <row r="322">
@@ -6030,27 +6027,27 @@
         <v>371</v>
       </c>
       <c r="B322" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C322" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="D322" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>374</v>
+      </c>
+      <c r="B323" t="s">
         <v>372</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>373</v>
       </c>
-      <c r="C323" t="s">
-        <v>374</v>
-      </c>
       <c r="D323" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="324">
@@ -6058,13 +6055,13 @@
         <v>375</v>
       </c>
       <c r="B324" t="s">
+        <v>372</v>
+      </c>
+      <c r="C324" t="s">
         <v>373</v>
       </c>
-      <c r="C324" t="s">
-        <v>374</v>
-      </c>
       <c r="D324" t="n">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325">
@@ -6072,13 +6069,13 @@
         <v>376</v>
       </c>
       <c r="B325" t="s">
+        <v>372</v>
+      </c>
+      <c r="C325" t="s">
         <v>373</v>
       </c>
-      <c r="C325" t="s">
-        <v>374</v>
-      </c>
       <c r="D325" t="n">
-        <v>98</v>
+        <v>228</v>
       </c>
     </row>
     <row r="326">
@@ -6086,13 +6083,13 @@
         <v>377</v>
       </c>
       <c r="B326" t="s">
+        <v>372</v>
+      </c>
+      <c r="C326" t="s">
         <v>373</v>
       </c>
-      <c r="C326" t="s">
-        <v>374</v>
-      </c>
       <c r="D326" t="n">
-        <v>229</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327">
@@ -6100,27 +6097,27 @@
         <v>378</v>
       </c>
       <c r="B327" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C327" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D327" t="n">
-        <v>335</v>
+        <v>140</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
+        <v>380</v>
+      </c>
+      <c r="B328" t="s">
+        <v>372</v>
+      </c>
+      <c r="C328" t="s">
         <v>379</v>
       </c>
-      <c r="B328" t="s">
-        <v>373</v>
-      </c>
-      <c r="C328" t="s">
-        <v>380</v>
-      </c>
       <c r="D328" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="329">
@@ -6128,13 +6125,13 @@
         <v>381</v>
       </c>
       <c r="B329" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C329" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D329" t="n">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="330">
@@ -6142,13 +6139,13 @@
         <v>382</v>
       </c>
       <c r="B330" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C330" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D330" t="n">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="331">
@@ -6156,13 +6153,13 @@
         <v>383</v>
       </c>
       <c r="B331" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C331" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D331" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="332">
@@ -6170,41 +6167,41 @@
         <v>384</v>
       </c>
       <c r="B332" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C332" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D332" t="n">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B333" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C333" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D333" t="n">
-        <v>148</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
+        <v>388</v>
+      </c>
+      <c r="B334" t="s">
         <v>387</v>
       </c>
-      <c r="B334" t="s">
-        <v>388</v>
-      </c>
       <c r="C334" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D334" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="335">
@@ -6212,27 +6209,27 @@
         <v>389</v>
       </c>
       <c r="B335" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C335" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D335" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
+        <v>391</v>
+      </c>
+      <c r="B336" t="s">
         <v>390</v>
       </c>
-      <c r="B336" t="s">
-        <v>391</v>
-      </c>
       <c r="C336" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D336" t="n">
-        <v>115</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337">
@@ -6240,13 +6237,13 @@
         <v>392</v>
       </c>
       <c r="B337" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C337" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D337" t="n">
-        <v>319</v>
+        <v>227</v>
       </c>
     </row>
     <row r="338">
@@ -6254,27 +6251,13 @@
         <v>393</v>
       </c>
       <c r="B338" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C338" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D338" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s">
-        <v>394</v>
-      </c>
-      <c r="B339" t="s">
-        <v>395</v>
-      </c>
-      <c r="C339" t="s">
-        <v>380</v>
-      </c>
-      <c r="D339" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/02_data/cleandata/idstocheck.xlsx
+++ b/02_data/cleandata/idstocheck.xlsx
@@ -26,1177 +26,1177 @@
     <t xml:space="preserve">PublicationID</t>
   </si>
   <si>
+    <t xml:space="preserve">aadamsoo_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis-induced psychotic disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transition to schizophrenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addington_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addington_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any psychosis outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addington_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addington_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transition to psychosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agosti_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis of a psychotic disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albertella_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albertella_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alderson_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alemany_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive PLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allegri_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of onset of psychosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amin_1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amini_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreasson_1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andreasson_1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arendt_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arendt_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ariashorcajadas_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arranaz_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arseneault_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atkinson_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auther_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis abuse/dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">auther_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bachmann_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baeza_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bailey_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifetime use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baldwin_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barkus_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disorganized Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrigón_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrowclough_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued use vs non-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrowclough_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baskak_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bechtold_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of first use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bechtold_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any psychosis outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berger_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bergé_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bersani_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhattacharrya_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">björkenstam_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloemen_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bourque_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current cannabis users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bousman_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brañas_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brañas_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bromet_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buchy_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buchy_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bugra_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burns_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cahn_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carvalho_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continous outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caspari_1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caspi_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cassidy_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castagnini_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castaneda_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castro-fornieles_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chan_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chang_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chen_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clausen_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleghom_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleghorn_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cohen_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colizzi_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colizzi_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compton_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compton_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corcoran_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lifetime cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costas_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-only studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crebbin_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degenhardt_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degenhardt_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degenhardtandhall_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehert_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deighton_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dekker_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derosse_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desousa_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devylder_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devylder_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti(2009;14;15)&amp;sideli_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti(2019)&amp;quattrone_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis type / potency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diforti_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adolescent cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragt_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragt_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragt_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dubertret_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumas_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dumas_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earleywine_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emsley_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enderami_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ermis_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esterberg_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrada_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faridi_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farrell_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferdinand_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fergusson_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fergusson_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fleming_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Schizotypy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foecking_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fond_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonseca-pedrero_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foti_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fraguas_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridberg_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridberg_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gage_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gage_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mendelian randomization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galletly_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galvez-buccollini_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gapdata_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most frequent  use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gill_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldberger_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gonzález-pinto_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gonzález-pinto_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goodman_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grace_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grech_1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grech_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grech_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffith-lendering_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gutierrez_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haahr_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hadden_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hagenmuller_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hallanddegenhardt_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harley_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helle_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henquet_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henquet_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henquet_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heslin_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hides_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hides_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hines_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hollis_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">houston_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">husted_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOS1AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isaac_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jarbin_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jockers-scherubl_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jones_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other substance use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kantrowitz_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karcher_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern / frequency of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavanagh_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiang_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiburi_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kim_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingston_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kittirattanapaiboon_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koen_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koenders_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continued vs non-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komuravelli_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konings_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total PLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konings_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korver_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovasznay_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kovasznay_1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krebs_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kristensen_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kuepper_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labad_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">large_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lavoie_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leadbeater_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leeson_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leeson_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lev-ran_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levy_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linszen_1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lodhi_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machielsen_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mackie_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madraisau_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no specific genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manrique-garcia_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mané_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mané_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marconi_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maremmani_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marino_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marneros_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martin_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martínezarévalo_1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marwaha_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High cannabis use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mason_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mata_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matsumoto_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauri_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mauri_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mazzoncini_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcgrath_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mchugh_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medhus_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miettunen_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miller_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mizrahi_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modestin_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morgan_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morgan_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustonen_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narayanaswamy_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nawaz_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negrete_1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nesvag_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nieman_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nieman_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niemi-pynttari_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nunez_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nunn_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nunn_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">okey_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ongur_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ouellet-plamondon_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o’donoghue_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o’o’donoghue_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paruk_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasman_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pelayo-terán_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peralta_1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peraltaandcuesta_1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peters_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phillips_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pillman_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poon_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pope_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potvin_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prince_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pruessner_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quattrone_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabin_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rahm_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rehman_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rehman_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rehmanandfarooq_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentero_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentzsch_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recent cannabis abstainers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentzsch_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentzsch_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riecher-rössler_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ringen_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolfe_1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roos_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruiz-veguilla_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rusaka_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">russo_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ryan_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rössler_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rømerthomsen_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salvatore_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salyersandmueser_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">san_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sara_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schaub_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schaub_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schiffman_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimmelmann_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimmelmann_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schimmelmann_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schnell_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schoeler_2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">schubart&amp;sommer_2011</t>
   </si>
   <si>
-    <t xml:space="preserve">cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total PLE</t>
-  </si>
-  <si>
     <t xml:space="preserve">schubart&amp;vangastel_2011</t>
   </si>
   <si>
+    <t xml:space="preserve">schubart_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schwartz_2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scott_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seddon_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seidman_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setién-suero_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setién-suero_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sevy_1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sevy_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sevy_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shakoor_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shinn_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sideli_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singal_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singh_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinner_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skosnik_2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skosnik_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skosnik_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solowij_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorbara_2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spriggens&amp;hides_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starzer_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stefanis_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stefanis_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stirling_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stirling_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stojanovic_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabis use disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subramaniam_2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suda_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugranyes_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tien_1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tosato_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valmaggia_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandam_2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandermeer_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandijk_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vangastel_2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">vangastel_2013</t>
   </si>
   <si>
+    <t xml:space="preserve">vangastel_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanmastrigt_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanos_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vantricht_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanwinkel_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaucher_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veen_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velthorst_2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdoux_2003</t>
+  </si>
+  <si>
     <t xml:space="preserve">vinkers_2013</t>
   </si>
   <si>
     <t xml:space="preserve">vreeker_2013</t>
   </si>
   <si>
-    <t xml:space="preserve">vangastel_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konings_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">konings_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verdoux_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive PLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stefanis_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hides_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skinner_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vangastel_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruiz-veguilla_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alemany_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spriggens&amp;hides_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brañas_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galletly_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brañas_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumas_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiang_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cohen_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morgan_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esterberg_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mason_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandam_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earleywine_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schiffman_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive Schizotypy</t>
+    <t xml:space="preserve">wade_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wade_2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiser_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whitty_2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiles_2006</t>
   </si>
   <si>
     <t xml:space="preserve">williams_1996</t>
   </si>
   <si>
-    <t xml:space="preserve">barkus_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disorganized Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fridberg_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifetime use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baskak_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kim_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fridberg_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compton_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hollis_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skosnik_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schaub_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bailey_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skosnik_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunn_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fleming_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schubart_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skosnik_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumas_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Schizotypy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunn_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanos_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychotic symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fergusson_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henquet_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tien_1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degenhardt_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degenhardtandhall_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miller_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arseneault_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fergusson_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marconi_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wiles_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miettunen_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcgrath_2010</t>
+    <t xml:space="preserve">winton-brown_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wright_1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">most frequent use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zammit_2007</t>
   </si>
   <si>
     <t xml:space="preserve">zammit_2011</t>
   </si>
   <si>
-    <t xml:space="preserve">zammit_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any psychosis outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weiser_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zammit_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">most frequent use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gapdata_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">most frequent  use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rössler_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ferdinand_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bechtold_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caspi_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuepper_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mustonen_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffith-lendering_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andreasson_1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis of a psychotic disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andreasson_1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolfe_1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grech_1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hallanddegenhardt_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farrell_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agosti_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phillips_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arendt_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age of onset of psychosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bersani_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cahn_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caspari_1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleghom_1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compton_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">derosse_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dubertret_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzález-pinto_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koen_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kovasznay_1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linszen_1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mata_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauri_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modestin_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peralta_1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rehman_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roos_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevy_1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevy_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugranyes_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanmastrigt_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veen_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baeza_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldberger_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grace_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kavanagh_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krebs_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maremmani_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazzoncini_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ongur_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wade_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrigón_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burns_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cleghorn_1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gonzález-pinto_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kovasznay_1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leeson_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machielsen_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rehman_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmann_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmann_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">large_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dehert_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dekker_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estrada_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grech_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leeson_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galvez-buccollini_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allegri_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stefanis_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tosato_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o’donoghue_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o’o’donoghue_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helle_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kantrowitz_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martin_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragt_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transition to psychosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kristensen_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auther_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis abuse/dependence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valmaggia_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buchy_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auther_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corcoran_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lifetime cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragt_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragt_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buchy_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mchugh_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addington_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atkinson_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">berger_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloemen_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bousman_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deighton_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devylder_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foecking_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labad_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lavoie_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nieman_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">riecher-rössler_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seidman_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">velthorst_2009</t>
+    <t xml:space="preserve">zhang-wong_1995</t>
   </si>
   <si>
     <t xml:space="preserve">ziermans_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">korver_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peters_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bugra_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive Symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mizrahi_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nieman_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vantricht_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gill_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative Symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">winton-brown_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addington_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hagenmuller_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pruessner_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">russo_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stojanovic_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis use disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devylder_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aadamsoo_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis-induced psychotic disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transition to schizophrenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addington_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alderson_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amin_1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amini_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arendt_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachmann_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baldwin_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">björkenstam_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bromet_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castagnini_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castro-fornieles_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chang_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chen_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crebbin_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enderami_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fraguas_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haahr_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heslin_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jarbin_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingston_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kittirattanapaiboon_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">komuravelli_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marneros_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mauri_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medhus_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">narayanaswamy_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niemi-pynttari_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pillman_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poon_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pope_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahm_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rusaka_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salvatore_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sara_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schimmelmann_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schwartz_2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shinn_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singal_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singh_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starzer_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subramaniam_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suda_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whitty_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wright_1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang-wong_1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degenhardt_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stirling_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ariashorcajadas_2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peraltaandcuesta_1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continued use vs non-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isaac_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jockers-scherubl_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ringen_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentzsch_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faridi_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrowclough_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schaub_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current cannabis users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goodman_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lev-ran_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bourque_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solowij_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potvin_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabin_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sevy_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cassidy_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandijk_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ho_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentzsch_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recent cannabis abstainers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentzsch_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schnell_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hides_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wade_2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martínezarévalo_1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negrete_1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continued vs non-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salyersandmueser_2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorbara_2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rehmanandfarooq_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">san_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koenders_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vandermeer_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addington_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any psychosis outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrowclough_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bergé_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clausen_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colizzi_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emsley_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fond_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foti_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grech_2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hadden_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ouellet-plamondon_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seddon_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setién-suero_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhattacharrya_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marino_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentero_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rømerthomsen_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schoeler_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adolescent cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonseca-pedrero_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harley_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">houston_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levy_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mackie_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manrique-garcia_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paruk_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scott_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiburi_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jones_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other substance use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ryan_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis type / potency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quattrone_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bechtold_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age of first use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henquet_2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gage_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setién-suero_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti(2009;14;15)&amp;sideli_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti(2019)&amp;quattrone_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chan_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prince_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matsumoto_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hines_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okey_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karcher_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern / frequency of use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leadbeater_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sideli_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunez_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arranaz_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">castaneda_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marwaha_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albertella_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low cannabis use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albertella_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nesvag_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shakoor_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stirling_2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madraisau_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no specific genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vanwinkel_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diforti_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">morgan_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costas_2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case-only studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desousa_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ermis_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pelayo-terán_2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zammit_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">henquet_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continous outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gutierrez_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nawaz_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mané_2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lodhi_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">husted_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOS1AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carvalho_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colizzi_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gage_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mendelian randomization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaucher_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pasman_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mané_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BDNF</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>272</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1575,1886 +1575,1886 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>312</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>322</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>321</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>296</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>311</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>253</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
         <v>15</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>208</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>195</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D27" t="n">
-        <v>308</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
         <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="n">
         <v>28</v>
-      </c>
-      <c r="D29" t="n">
-        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
-        <v>329</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D33" t="n">
-        <v>113</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D35" t="n">
-        <v>158</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>263</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D42" t="n">
-        <v>289</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>219</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="n">
         <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="n">
-        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>273</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>291</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>220</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D49" t="n">
-        <v>315</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D52" t="n">
-        <v>305</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D54" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
         <v>67</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D55" t="n">
-        <v>205</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>188</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>328</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>204</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>201</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
         <v>61</v>
-      </c>
-      <c r="D62" t="n">
-        <v>335</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>332</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>326</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D65" t="n">
-        <v>333</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
         <v>80</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>81</v>
       </c>
-      <c r="C66" t="s">
-        <v>76</v>
-      </c>
       <c r="D66" t="n">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>257</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D69" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D71" t="n">
-        <v>171</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>210</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
-        <v>129</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>251</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D78" t="n">
-        <v>135</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D79" t="n">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>232</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D87" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D93" t="n">
-        <v>167</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D94" t="n">
-        <v>180</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D95" t="n">
-        <v>196</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D96" t="n">
-        <v>198</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>207</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>229</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D99" t="n">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="n">
         <v>99</v>
-      </c>
-      <c r="D100" t="n">
-        <v>252</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D101" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
-        <v>282</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D103" t="n">
-        <v>304</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D104" t="n">
-        <v>314</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
-        <v>319</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C107" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D107" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D111" t="n">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D113" t="n">
-        <v>222</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D114" t="n">
-        <v>324</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D116" t="n">
-        <v>49</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D117" t="n">
-        <v>63</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D118" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D119" t="n">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="D120" t="n">
-        <v>176</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D121" t="n">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D122" t="n">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>268</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D124" t="n">
-        <v>266</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D125" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D126" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D129" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D130" t="n">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D131" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D132" t="n">
-        <v>11</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>297</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D134" t="n">
-        <v>306</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="D135" t="n">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D136" t="n">
-        <v>224</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D137" t="n">
-        <v>225</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D138" t="n">
         <v>137</v>
@@ -3462,405 +3462,405 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C139" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D139" t="n">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D140" t="n">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="D141" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D143" t="n">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="D144" t="n">
-        <v>307</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D145" t="n">
-        <v>46</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="D146" t="n">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B147" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="D147" t="n">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D148" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="D149" t="n">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C150" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="D150" t="n">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>202</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="D152" t="n">
-        <v>5</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D153" t="n">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="D154" t="n">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D155" t="n">
-        <v>40</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="D156" t="n">
-        <v>42</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="D157" t="n">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D158" t="n">
-        <v>81</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C159" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="D159" t="n">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="n">
         <v>159</v>
-      </c>
-      <c r="D160" t="n">
-        <v>172</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D163" t="n">
-        <v>249</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>277</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D165" t="n">
-        <v>320</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D166" t="n">
-        <v>337</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D167" t="n">
         <v>166</v>
@@ -3868,1147 +3868,1147 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="D168" t="n">
-        <v>231</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="D169" t="n">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="D170" t="n">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="D172" t="n">
-        <v>316</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="D173" t="n">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="D174" t="n">
-        <v>330</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B175" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="B176" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C176" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="D176" t="n">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="D177" t="n">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B178" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="D178" t="n">
-        <v>255</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="C179" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="D179" t="n">
-        <v>300</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C180" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="D180" t="n">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B182" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C182" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B183" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D183" t="n">
-        <v>9</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B184" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="C184" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D184" t="n">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B185" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="C185" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D185" t="n">
-        <v>13</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B186" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="C186" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D186" t="n">
-        <v>17</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B187" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C187" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="D187" t="n">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C188" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="D188" t="n">
-        <v>27</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D189" t="n">
-        <v>39</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D191" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>59</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D194" t="n">
-        <v>60</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="C195" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D195" t="n">
-        <v>71</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="B196" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C196" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="D196" t="n">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="B197" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D197" t="n">
-        <v>111</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="B198" t="s">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="C198" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D198" t="n">
-        <v>132</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="B199" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D199" t="n">
-        <v>141</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B200" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>150</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D201" t="n">
-        <v>159</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="B202" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D202" t="n">
-        <v>160</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="D203" t="n">
-        <v>163</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D205" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D206" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="D207" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D208" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="C209" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="D209" t="n">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B210" t="s">
+        <v>121</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="n">
         <v>209</v>
-      </c>
-      <c r="C210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D210" t="n">
-        <v>234</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
+        <v>59</v>
+      </c>
+      <c r="D211" t="n">
         <v>210</v>
-      </c>
-      <c r="D211" t="n">
-        <v>235</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="B212" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>241</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B213" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C213" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="D213" t="n">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="B214" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C214" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D214" t="n">
-        <v>259</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B215" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="C215" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D215" t="n">
-        <v>262</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="D216" t="n">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B217" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="D217" t="n">
-        <v>274</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B218" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>284</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B219" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="C219" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D219" t="n">
-        <v>286</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="B220" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C220" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="D220" t="n">
-        <v>287</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B221" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="C221" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="D221" t="n">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>209</v>
+        <v>57</v>
       </c>
       <c r="C222" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D222" t="n">
-        <v>302</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="B223" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D223" t="n">
-        <v>303</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="D224" t="n">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B225" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>331</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B226" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="D226" t="n">
-        <v>336</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C227" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="D227" t="n">
-        <v>73</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="C228" t="s">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="D228" t="n">
-        <v>298</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C229" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="D229" t="n">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B230" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="D230" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="B231" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="C231" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="D231" t="n">
-        <v>149</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B232" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D232" t="n">
-        <v>151</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="D233" t="n">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B234" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B235" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>101</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="B236" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>30</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B237" t="s">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="C237" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D237" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B238" t="s">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c r="C238" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="D238" t="n">
-        <v>123</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B239" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="D239" t="n">
-        <v>178</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B240" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="C240" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="D240" t="n">
-        <v>41</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B241" t="s">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="C241" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D241" t="n">
-        <v>292</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B242" t="s">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B243" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="D243" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B244" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="D244" t="n">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B245" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="C245" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="D245" t="n">
-        <v>54</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="B246" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="D246" t="n">
-        <v>310</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B247" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="C247" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D247" t="n">
-        <v>145</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B248" t="s">
-        <v>282</v>
+        <v>53</v>
       </c>
       <c r="C248" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="D248" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B249" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C249" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D249" t="n">
         <v>248</v>
@@ -5016,1248 +5016,1248 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B250" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="D250" t="n">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C251" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="D251" t="n">
-        <v>142</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="D252" t="n">
-        <v>325</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="D253" t="n">
-        <v>193</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B254" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="D254" t="n">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B256" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="D256" t="n">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B257" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="C257" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="D257" t="n">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B258" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="D258" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B259" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="D259" t="n">
-        <v>162</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="B260" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="C260" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>309</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C261" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="D261" t="n">
-        <v>3</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C262" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="D262" t="n">
-        <v>31</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
       </c>
       <c r="C263" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>36</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="D264" t="n">
-        <v>61</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C265" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="D265" t="n">
-        <v>66</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C266" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="D266" t="n">
-        <v>96</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D267" t="n">
-        <v>108</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>110</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B269" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D269" t="n">
-        <v>126</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="C270" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="D270" t="n">
-        <v>133</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D271" t="n">
-        <v>223</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="D272" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="D273" t="n">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C274" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="D274" t="n">
-        <v>301</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
       </c>
       <c r="C275" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C276" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D276" t="n">
-        <v>190</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D277" t="n">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C279" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D279" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B280" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D280" t="n">
-        <v>88</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B281" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D281" t="n">
-        <v>109</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B282" t="s">
-        <v>318</v>
+        <v>67</v>
       </c>
       <c r="C282" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="D282" t="n">
-        <v>136</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B283" t="s">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D283" t="n">
-        <v>147</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B284" t="s">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="C284" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D284" t="n">
-        <v>179</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B285" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="C285" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>183</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B286" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="C286" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>185</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B287" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>226</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B288" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="D289" t="n">
-        <v>157</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B290" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C290" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="D290" t="n">
-        <v>152</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B291" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C291" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="D291" t="n">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B292" t="s">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="C292" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="D292" t="n">
-        <v>87</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B293" t="s">
-        <v>332</v>
+        <v>67</v>
       </c>
       <c r="C293" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="D293" t="n">
-        <v>239</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B294" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="C294" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="D294" t="n">
-        <v>84</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B295" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="D295" t="n">
-        <v>33</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B296" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="C296" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>138</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B297" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="D297" t="n">
-        <v>114</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B298" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D298" t="n">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B299" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
+        <v>33</v>
+      </c>
+      <c r="D299" t="n">
         <v>298</v>
-      </c>
-      <c r="D299" t="n">
-        <v>82</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B300" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="C300" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D300" t="n">
-        <v>83</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B301" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C301" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="D301" t="n">
-        <v>58</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B302" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C302" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D302" t="n">
-        <v>237</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B303" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="C303" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>197</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B304" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>144</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B305" t="s">
-        <v>336</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D305" t="n">
-        <v>221</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B306" t="s">
-        <v>348</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="D306" t="n">
-        <v>154</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B307" t="s">
-        <v>348</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D307" t="n">
-        <v>175</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B308" t="s">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="C308" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="D308" t="n">
-        <v>285</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B309" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="C309" t="s">
-        <v>298</v>
+        <v>46</v>
       </c>
       <c r="D309" t="n">
-        <v>218</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B310" t="s">
-        <v>354</v>
+        <v>210</v>
       </c>
       <c r="C310" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="D310" t="n">
-        <v>19</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B311" t="s">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="C311" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="D311" t="n">
-        <v>56</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B312" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="D312" t="n">
-        <v>194</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B313" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="D313" t="n">
-        <v>8</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B314" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="D314" t="n">
-        <v>7</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B315" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D315" t="n">
-        <v>214</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B316" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="D316" t="n">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B317" t="s">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="C317" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="D317" t="n">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B318" t="s">
-        <v>366</v>
+        <v>121</v>
       </c>
       <c r="C318" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="D318" t="n">
-        <v>184</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B319" t="s">
-        <v>368</v>
+        <v>155</v>
       </c>
       <c r="C319" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="D319" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B320" t="s">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="D320" t="n">
-        <v>85</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B321" t="s">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="D321" t="n">
-        <v>209</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B322" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="D322" t="n">
-        <v>70</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B323" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="D323" t="n">
-        <v>79</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B324" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="D324" t="n">
-        <v>98</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B325" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="D325" t="n">
-        <v>228</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B326" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C326" t="s">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="D326" t="n">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B327" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>379</v>
+        <v>59</v>
       </c>
       <c r="D327" t="n">
-        <v>140</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B328" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="C328" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>131</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B329" t="s">
-        <v>372</v>
+        <v>9</v>
       </c>
       <c r="C329" t="s">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="D329" t="n">
-        <v>212</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B330" t="s">
-        <v>372</v>
+        <v>49</v>
       </c>
       <c r="C330" t="s">
-        <v>379</v>
+        <v>145</v>
       </c>
       <c r="D330" t="n">
-        <v>186</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B331" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="C331" t="s">
-        <v>379</v>
+        <v>162</v>
       </c>
       <c r="D331" t="n">
-        <v>181</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B332" t="s">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="C332" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>148</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B333" t="s">
-        <v>387</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>379</v>
+        <v>59</v>
       </c>
       <c r="D333" t="n">
-        <v>51</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B334" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C334" t="s">
-        <v>379</v>
+        <v>59</v>
       </c>
       <c r="D334" t="n">
-        <v>65</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B335" t="s">
-        <v>390</v>
+        <v>103</v>
       </c>
       <c r="C335" t="s">
-        <v>379</v>
+        <v>104</v>
       </c>
       <c r="D335" t="n">
-        <v>115</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B336" t="s">
-        <v>390</v>
+        <v>9</v>
       </c>
       <c r="C336" t="s">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="D336" t="n">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B337" t="s">
-        <v>390</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>227</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B338" t="s">
-        <v>394</v>
+        <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>379</v>
+        <v>15</v>
       </c>
       <c r="D338" t="n">
-        <v>187</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
